--- a/data/trans_orig/P1801_2016_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1801_2016_2023-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>210751</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>191155</v>
+        <v>188954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>233490</v>
+        <v>234294</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4911547731012416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4454880514101768</v>
+        <v>0.4403582242538892</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5441489187052675</v>
+        <v>0.5460216401028843</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>193</v>
@@ -763,19 +763,19 @@
         <v>202400</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>183803</v>
+        <v>185467</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>223399</v>
+        <v>221587</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5831940125653602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5296084679631977</v>
+        <v>0.5344037182186736</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6436991105920523</v>
+        <v>0.6384791760839695</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>388</v>
@@ -784,19 +784,19 @@
         <v>413151</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>382433</v>
+        <v>383572</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>439905</v>
+        <v>440000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5323102153905293</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4927321165013676</v>
+        <v>0.4942003190656096</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5667810694886222</v>
+        <v>0.5669030497108221</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>218341</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195602</v>
+        <v>194798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>237937</v>
+        <v>240138</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5088452268987584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4558510812947326</v>
+        <v>0.4539783598971157</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5545119485898232</v>
+        <v>0.5596417757461107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>139</v>
@@ -834,19 +834,19 @@
         <v>144655</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123656</v>
+        <v>125468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>163252</v>
+        <v>161588</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4168059874346399</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3563008894079467</v>
+        <v>0.3615208239160304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4703915320368018</v>
+        <v>0.4655962817813266</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>340</v>
@@ -855,19 +855,19 @@
         <v>362996</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>336242</v>
+        <v>336147</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>393714</v>
+        <v>392575</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4676897846094707</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.433218930511378</v>
+        <v>0.433096950289178</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5072678834986327</v>
+        <v>0.5057996809343903</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>187918</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>165319</v>
+        <v>167292</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>207309</v>
+        <v>207480</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.49815738995745</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4382468811067548</v>
+        <v>0.4434772037071445</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5495616536318059</v>
+        <v>0.5500126559208739</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>200</v>
@@ -980,19 +980,19 @@
         <v>215785</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>196154</v>
+        <v>196848</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>234744</v>
+        <v>235287</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5796429724508656</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5269079707442911</v>
+        <v>0.5287726080692395</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6305693048016968</v>
+        <v>0.6320277909644912</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>378</v>
@@ -1001,19 +1001,19 @@
         <v>403704</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>374923</v>
+        <v>374925</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>433410</v>
+        <v>429646</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5386308969130629</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5002311062080825</v>
+        <v>0.5002336417234508</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.57826613614509</v>
+        <v>0.5732440450629765</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>189309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>169918</v>
+        <v>169747</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>211908</v>
+        <v>209935</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.50184261004255</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4504383463681942</v>
+        <v>0.4499873440791261</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5617531188932451</v>
+        <v>0.5565227962928555</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>152</v>
@@ -1051,19 +1051,19 @@
         <v>156488</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>137529</v>
+        <v>136986</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>176119</v>
+        <v>175425</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4203570275491345</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3694306951983031</v>
+        <v>0.3679722090355086</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4730920292557087</v>
+        <v>0.4712273919307604</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>328</v>
@@ -1072,19 +1072,19 @@
         <v>345796</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>316090</v>
+        <v>319854</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>374577</v>
+        <v>374575</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4613691030869371</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4217338638549099</v>
+        <v>0.4267559549370234</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4997688937919174</v>
+        <v>0.4997663582765491</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>278498</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>255854</v>
+        <v>256368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>300800</v>
+        <v>303238</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5336091458194795</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4902226322909667</v>
+        <v>0.4912074102458069</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5763395445126378</v>
+        <v>0.5810116326390422</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -1197,19 +1197,19 @@
         <v>105427</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93082</v>
+        <v>92508</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117566</v>
+        <v>117789</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6346346874787763</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.560321206826349</v>
+        <v>0.5568622440150712</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7077038724189236</v>
+        <v>0.7090449278404823</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>365</v>
@@ -1218,19 +1218,19 @@
         <v>383925</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>357408</v>
+        <v>358444</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>411542</v>
+        <v>409728</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.558001233150015</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5194608236898706</v>
+        <v>0.5209671326357778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5981408454054207</v>
+        <v>0.5955032608559436</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>243416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>221114</v>
+        <v>218676</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>266060</v>
+        <v>265546</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4663908541805205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.423660455487362</v>
+        <v>0.4189883673609578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.509777367709033</v>
+        <v>0.5087925897541931</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -1268,19 +1268,19 @@
         <v>60696</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48557</v>
+        <v>48334</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73041</v>
+        <v>73615</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3653653125212238</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2922961275810763</v>
+        <v>0.2909550721595177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4396787931736509</v>
+        <v>0.4431377559849287</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>290</v>
@@ -1289,19 +1289,19 @@
         <v>304111</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>276494</v>
+        <v>278308</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>330628</v>
+        <v>329592</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.441998766849985</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4018591545945793</v>
+        <v>0.4044967391440563</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4805391763101293</v>
+        <v>0.479032867364222</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>550675</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>516535</v>
+        <v>512860</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>585021</v>
+        <v>585074</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.478998452513936</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4493024760818581</v>
+        <v>0.446105491855588</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.508874300581895</v>
+        <v>0.5089201180661648</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>430</v>
@@ -1414,19 +1414,19 @@
         <v>450988</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>419708</v>
+        <v>420397</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>478790</v>
+        <v>477234</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.546071909347103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5081968130836576</v>
+        <v>0.509031907170296</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5797355143670501</v>
+        <v>0.5778513658712982</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>964</v>
@@ -1435,19 +1435,19 @@
         <v>1001662</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>955365</v>
+        <v>955818</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1045337</v>
+        <v>1043698</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5070389231499542</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4836032965911785</v>
+        <v>0.4838325095611537</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5291469157299745</v>
+        <v>0.528316957423364</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>598963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>564617</v>
+        <v>564564</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>633103</v>
+        <v>636778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.521001547486064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.491125699418106</v>
+        <v>0.4910798819338353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5506975239181419</v>
+        <v>0.5538945081444123</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -1485,19 +1485,19 @@
         <v>374888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>347086</v>
+        <v>348642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>406168</v>
+        <v>405479</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.453928090652897</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.42026448563295</v>
+        <v>0.4221486341287017</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4918031869163423</v>
+        <v>0.490968092829704</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>937</v>
@@ -1506,19 +1506,19 @@
         <v>973852</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>930177</v>
+        <v>931816</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1020149</v>
+        <v>1019696</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4929610768500458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4708530842700258</v>
+        <v>0.471683042576636</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5163967034088216</v>
+        <v>0.5161674904388462</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>280168</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>255216</v>
+        <v>258248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>303934</v>
+        <v>308716</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4513698621670345</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4111706952611556</v>
+        <v>0.416055256713203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4896580489259113</v>
+        <v>0.4973626714685941</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>384</v>
@@ -1631,19 +1631,19 @@
         <v>408552</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>381009</v>
+        <v>379619</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>435867</v>
+        <v>434730</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5534105165951025</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5161018150282158</v>
+        <v>0.5142187669596602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5904108357964384</v>
+        <v>0.5888705916382774</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>662</v>
@@ -1652,19 +1652,19 @@
         <v>688720</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>652095</v>
+        <v>644491</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>727744</v>
+        <v>725632</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5068030374399572</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4798517536284272</v>
+        <v>0.4742567344746103</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5355196216141578</v>
+        <v>0.5339648272477214</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>340538</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>316772</v>
+        <v>311990</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>365490</v>
+        <v>362458</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5486301378329655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5103419510740888</v>
+        <v>0.502637328531406</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5888293047388444</v>
+        <v>0.5839447432867969</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>315</v>
@@ -1702,19 +1702,19 @@
         <v>329692</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>302377</v>
+        <v>303514</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>357235</v>
+        <v>358625</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4465894834048975</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4095891642035616</v>
+        <v>0.4111294083617227</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4838981849717842</v>
+        <v>0.4857812330403398</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>634</v>
@@ -1723,19 +1723,19 @@
         <v>670230</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>631206</v>
+        <v>633318</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>706855</v>
+        <v>714459</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4931969625600428</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4644803783858422</v>
+        <v>0.4660351727522786</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5201482463715728</v>
+        <v>0.5257432655253896</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>68137</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53803</v>
+        <v>54469</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83792</v>
+        <v>82437</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2372925826248848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1873737136444388</v>
+        <v>0.1896903003414592</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2918115143732931</v>
+        <v>0.2870910435655556</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>570</v>
@@ -1848,19 +1848,19 @@
         <v>636423</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>600763</v>
+        <v>602650</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>669863</v>
+        <v>667294</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5881778539911743</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5552209626750305</v>
+        <v>0.55696537728176</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6190828268268487</v>
+        <v>0.6167081554940098</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>633</v>
@@ -1869,19 +1869,19 @@
         <v>704560</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>661763</v>
+        <v>666033</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>740216</v>
+        <v>742500</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5145894734328532</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4833312835792047</v>
+        <v>0.4864505105630947</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5406314195658619</v>
+        <v>0.5422991852218796</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>219008</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>203353</v>
+        <v>204708</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233342</v>
+        <v>232676</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7627074173751152</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7081884856267063</v>
+        <v>0.7129089564344443</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8126262863555609</v>
+        <v>0.8103096996585408</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>422</v>
@@ -1919,19 +1919,19 @@
         <v>445602</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>412162</v>
+        <v>414731</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>481262</v>
+        <v>479375</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4118221460088257</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3809171731731515</v>
+        <v>0.3832918445059904</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4447790373249695</v>
+        <v>0.4430346227182402</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>631</v>
@@ -1940,19 +1940,19 @@
         <v>664610</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>628954</v>
+        <v>626670</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>707407</v>
+        <v>703137</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4854105265671468</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4593685804341387</v>
+        <v>0.4577008147781201</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5166687164207958</v>
+        <v>0.513549489436905</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>1576147</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1517877</v>
+        <v>1518454</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1635324</v>
+        <v>1636482</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4655276552755481</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4483171191896222</v>
+        <v>0.4484874406428018</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4830060866969914</v>
+        <v>0.4833481234313738</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1873</v>
@@ -2065,19 +2065,19 @@
         <v>2019576</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1960537</v>
+        <v>1965031</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2080224</v>
+        <v>2083788</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5718593094948551</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5551420268593736</v>
+        <v>0.5564144603895906</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5890323130324866</v>
+        <v>0.5900414574961343</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3390</v>
@@ -2086,19 +2086,19 @@
         <v>3595723</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3509425</v>
+        <v>3516169</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3680831</v>
+        <v>3689135</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5198146533088523</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5073389593713516</v>
+        <v>0.5083139186868649</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5321182882105164</v>
+        <v>0.533318634758475</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>1809575</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1750398</v>
+        <v>1749240</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1867845</v>
+        <v>1867268</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5344723447244519</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5169939133030087</v>
+        <v>0.5166518765686262</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5516828808103778</v>
+        <v>0.5515125593571982</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1453</v>
@@ -2136,19 +2136,19 @@
         <v>1512020</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1451372</v>
+        <v>1447808</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1571059</v>
+        <v>1566565</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4281406905051449</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4109676869675134</v>
+        <v>0.4099585425038657</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4448579731406264</v>
+        <v>0.4435855396104094</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3160</v>
@@ -2157,19 +2157,19 @@
         <v>3321595</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3236487</v>
+        <v>3228183</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3407893</v>
+        <v>3401149</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4801853466911477</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4678817117894836</v>
+        <v>0.466681365241525</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4926610406286484</v>
+        <v>0.491686081313135</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>295659</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>267952</v>
+        <v>271099</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>318217</v>
+        <v>318786</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.538059099538669</v>
+        <v>0.5380590995386691</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.487636014694428</v>
+        <v>0.4933636837698966</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.579111418647751</v>
+        <v>0.5801480456446672</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>442</v>
@@ -2524,19 +2524,19 @@
         <v>305232</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>286656</v>
+        <v>285622</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>324691</v>
+        <v>323720</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6272258504446756</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5890548878725302</v>
+        <v>0.5869290852497745</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6672134282892583</v>
+        <v>0.6652169898166944</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>766</v>
@@ -2545,19 +2545,19 @@
         <v>600891</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>569088</v>
+        <v>568152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>630901</v>
+        <v>632695</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5799379984840258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.549244019137502</v>
+        <v>0.548341151321306</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6089023605838226</v>
+        <v>0.6106333575676888</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>253832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231274</v>
+        <v>230705</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281539</v>
+        <v>278392</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4619409004613309</v>
+        <v>0.461940900461331</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4208885813522485</v>
+        <v>0.4198519543553327</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5123639853055714</v>
+        <v>0.5066363162301033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -2595,19 +2595,19 @@
         <v>181406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>161947</v>
+        <v>162918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>199982</v>
+        <v>201016</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3727741495553244</v>
+        <v>0.3727741495553245</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3327865717107417</v>
+        <v>0.3347830101833059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4109451121274698</v>
+        <v>0.4130709147502257</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>470</v>
@@ -2616,19 +2616,19 @@
         <v>435238</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>405228</v>
+        <v>403434</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>467041</v>
+        <v>467977</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4200620015159743</v>
+        <v>0.4200620015159742</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3910976394161771</v>
+        <v>0.3893666424323114</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4507559808624981</v>
+        <v>0.451658848678694</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>268131</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>246318</v>
+        <v>244857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>291785</v>
+        <v>290648</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5548923982486168</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5097520228852215</v>
+        <v>0.5067270063837902</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6038444604780773</v>
+        <v>0.6014908207361639</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>351</v>
@@ -2741,19 +2741,19 @@
         <v>236791</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>218461</v>
+        <v>218495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>253703</v>
+        <v>255641</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5604784722851037</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5170916176806841</v>
+        <v>0.5171712462091631</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6005095382656294</v>
+        <v>0.6050958707463734</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>638</v>
@@ -2762,19 +2762,19 @@
         <v>504922</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>475230</v>
+        <v>478047</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>533395</v>
+        <v>535747</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.557498145201243</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5247143669611102</v>
+        <v>0.5278255178604339</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5889367702920979</v>
+        <v>0.5915338652457027</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>215081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>191427</v>
+        <v>192564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>236894</v>
+        <v>238355</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4451076017513833</v>
+        <v>0.4451076017513831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3961555395219227</v>
+        <v>0.3985091792638361</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4902479771147786</v>
+        <v>0.4932729936162097</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>238</v>
@@ -2812,19 +2812,19 @@
         <v>185689</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>168777</v>
+        <v>166839</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>204019</v>
+        <v>203985</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4395215277148962</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3994904617343705</v>
+        <v>0.3949041292536267</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4829083823193158</v>
+        <v>0.4828287537908369</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>432</v>
@@ -2833,19 +2833,19 @@
         <v>400770</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>372297</v>
+        <v>369945</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>430462</v>
+        <v>427645</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.442501854798757</v>
+        <v>0.4425018547987571</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4110632297079023</v>
+        <v>0.4084661347542969</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4752856330388901</v>
+        <v>0.472174482139566</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>244490</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>220673</v>
+        <v>221852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>267444</v>
+        <v>266362</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5184128139951134</v>
+        <v>0.5184128139951133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.467911453672648</v>
+        <v>0.4704129169041488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5670857334343787</v>
+        <v>0.5647902855350079</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>175</v>
@@ -2958,19 +2958,19 @@
         <v>107964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94883</v>
+        <v>97100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118449</v>
+        <v>119609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5778981320088241</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5078777495170541</v>
+        <v>0.5197466551718685</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6340194701043858</v>
+        <v>0.6402294526951066</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>454</v>
@@ -2979,19 +2979,19 @@
         <v>352454</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>326087</v>
+        <v>327679</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>379178</v>
+        <v>376769</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5352910307131561</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4952455952750575</v>
+        <v>0.4976640639080294</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5758782840080232</v>
+        <v>0.5722203980290261</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>227122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>204168</v>
+        <v>205250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>250939</v>
+        <v>249760</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4815871860048867</v>
+        <v>0.4815871860048866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4329142665656214</v>
+        <v>0.4352097144649922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.532088546327352</v>
+        <v>0.5295870830958511</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>113</v>
@@ -3029,19 +3029,19 @@
         <v>78858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>68373</v>
+        <v>67213</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91939</v>
+        <v>89722</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4221018679911757</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3659805298956139</v>
+        <v>0.3597705473048929</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4921222504829456</v>
+        <v>0.4802533448281314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>322</v>
@@ -3050,19 +3050,19 @@
         <v>305980</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>279256</v>
+        <v>281665</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>332347</v>
+        <v>330755</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4647089692868439</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4241217159919768</v>
+        <v>0.4277796019709739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5047544047249426</v>
+        <v>0.5023359360919707</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>553653</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>514484</v>
+        <v>517844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>591575</v>
+        <v>591484</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4896238184042648</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4549844131507894</v>
+        <v>0.4579564836859443</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5231599537866191</v>
+        <v>0.5230797415403685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>764</v>
@@ -3175,19 +3175,19 @@
         <v>504051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>476968</v>
+        <v>478548</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>529019</v>
+        <v>529776</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5868221449358285</v>
+        <v>0.5868221449358286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5552922510107063</v>
+        <v>0.5571312659168279</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6158898174081798</v>
+        <v>0.6167716166406612</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1383</v>
@@ -3196,19 +3196,19 @@
         <v>1057704</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1010874</v>
+        <v>1012875</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1099127</v>
+        <v>1103975</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5315837035657239</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5080476887291903</v>
+        <v>0.5090533739541957</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5524019932424342</v>
+        <v>0.5548383392261721</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>577119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>539197</v>
+        <v>539288</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>616288</v>
+        <v>612928</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5103761815957352</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4768400462133808</v>
+        <v>0.4769202584596313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5450155868492105</v>
+        <v>0.5420435163140559</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>464</v>
@@ -3246,19 +3246,19 @@
         <v>354899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>329931</v>
+        <v>329174</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>381982</v>
+        <v>380402</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4131778550641714</v>
+        <v>0.4131778550641713</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3841101825918203</v>
+        <v>0.383228383359339</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4447077489892939</v>
+        <v>0.442868734083172</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>962</v>
@@ -3267,19 +3267,19 @@
         <v>932019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>890596</v>
+        <v>885748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>978849</v>
+        <v>976848</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.468416296434276</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4475980067575657</v>
+        <v>0.4451616607738285</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.49195231127081</v>
+        <v>0.4909466260458044</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>247687</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>222150</v>
+        <v>223627</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>273152</v>
+        <v>273004</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4369271946627135</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.391878812356008</v>
+        <v>0.3944842266465195</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4818464249744138</v>
+        <v>0.481586688103272</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>792</v>
@@ -3392,19 +3392,19 @@
         <v>474652</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>449800</v>
+        <v>447057</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>497834</v>
+        <v>499126</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.571896875295734</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5419536523632937</v>
+        <v>0.5386486237465808</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5998276223345022</v>
+        <v>0.6013854597775133</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1065</v>
@@ -3413,19 +3413,19 @@
         <v>722340</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>688924</v>
+        <v>685675</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>757264</v>
+        <v>760040</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.517121841555842</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4931997979127441</v>
+        <v>0.4908735842315642</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5421242237330307</v>
+        <v>0.5441113275841686</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>319198</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>293733</v>
+        <v>293881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>344735</v>
+        <v>343258</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5630728053372864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5181535750255862</v>
+        <v>0.5184133118967278</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6081211876439923</v>
+        <v>0.6055157733534806</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>497</v>
@@ -3463,19 +3463,19 @@
         <v>355309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>332127</v>
+        <v>330835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>380161</v>
+        <v>382904</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.428103124704266</v>
+        <v>0.4281031247042661</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4001723776654978</v>
+        <v>0.3986145402224867</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4580463476367062</v>
+        <v>0.4613513762534192</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>770</v>
@@ -3484,19 +3484,19 @@
         <v>674506</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>639582</v>
+        <v>636806</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>707922</v>
+        <v>711171</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.482878158444158</v>
+        <v>0.4828781584441579</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4578757762669691</v>
+        <v>0.4558886724158314</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.506800202087256</v>
+        <v>0.5091264157684356</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>46537</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30631</v>
+        <v>30306</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67086</v>
+        <v>67509</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1961708095242758</v>
+        <v>0.1961708095242759</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1291225883774403</v>
+        <v>0.1277519382695906</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2827905873878149</v>
+        <v>0.284575961212009</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>618</v>
@@ -3609,19 +3609,19 @@
         <v>399375</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>371441</v>
+        <v>367468</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>429079</v>
+        <v>426859</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4737215856913632</v>
+        <v>0.4737215856913631</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4405881014387258</v>
+        <v>0.435875304302586</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5089550820053083</v>
+        <v>0.5063223990942333</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>646</v>
@@ -3630,19 +3630,19 @@
         <v>445912</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>412314</v>
+        <v>412463</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>483218</v>
+        <v>480602</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4127722172310686</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3816709775303497</v>
+        <v>0.381809025354828</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.447305213365819</v>
+        <v>0.4448836606169433</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>190691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>170142</v>
+        <v>169719</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>206597</v>
+        <v>206922</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8038291904757242</v>
+        <v>0.8038291904757241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7172094126121851</v>
+        <v>0.7154240387879891</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8708774116225597</v>
+        <v>0.8722480617304087</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>539</v>
@@ -3680,19 +3680,19 @@
         <v>443683</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>413979</v>
+        <v>416199</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>471617</v>
+        <v>475590</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5262784143086369</v>
+        <v>0.5262784143086366</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4910449179946917</v>
+        <v>0.4936776009057666</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5594118985612742</v>
+        <v>0.5641246956974141</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>623</v>
@@ -3701,19 +3701,19 @@
         <v>634374</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>597068</v>
+        <v>599684</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>667972</v>
+        <v>667823</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5872277827689313</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5526947866341813</v>
+        <v>0.5551163393830568</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6183290224696504</v>
+        <v>0.6181909746451721</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>1656157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1587777</v>
+        <v>1596518</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1717125</v>
+        <v>1719056</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.481552875235434</v>
+        <v>0.4815528752354339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4616705137760578</v>
+        <v>0.4642118919721216</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4992803872996557</v>
+        <v>0.4998417863917783</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3142</v>
@@ -3826,19 +3826,19 @@
         <v>2028065</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1972451</v>
+        <v>1968468</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2081116</v>
+        <v>2083104</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.559017536682421</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5436878513252844</v>
+        <v>0.5425899605412294</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5736405913126013</v>
+        <v>0.5741884606276723</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4952</v>
@@ -3847,19 +3847,19 @@
         <v>3684222</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3597031</v>
+        <v>3601769</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3764935</v>
+        <v>3767965</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5213194610411709</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5089819136806926</v>
+        <v>0.5096522787246974</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5327404043932085</v>
+        <v>0.5331691719054698</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>1783043</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1722075</v>
+        <v>1720144</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1851423</v>
+        <v>1842682</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5184471247645662</v>
+        <v>0.5184471247645661</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5007196127003445</v>
+        <v>0.5001582136082217</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5383294862239421</v>
+        <v>0.5357881080278784</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2092</v>
@@ -3897,19 +3897,19 @@
         <v>1599845</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1546794</v>
+        <v>1544806</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1655459</v>
+        <v>1659442</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.440982463317579</v>
+        <v>0.4409824633175791</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.426359408687399</v>
+        <v>0.4258115393723277</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.456312148674716</v>
+        <v>0.4574100394587707</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3579</v>
@@ -3918,19 +3918,19 @@
         <v>3382888</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3302175</v>
+        <v>3299145</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3470079</v>
+        <v>3465341</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4786805389588291</v>
+        <v>0.4786805389588292</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4672595956067916</v>
+        <v>0.4668308280945302</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4910180863193077</v>
+        <v>0.4903477212753026</v>
       </c>
     </row>
     <row r="24">
